--- a/Лабораторная работа 5/Требования к продукту.xlsx
+++ b/Лабораторная работа 5/Требования к продукту.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\60079815\Desktop\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mpu\Програмная инж\softeng\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7FC01B-CCF4-4DD6-9BDC-04B2F4E074C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Требование</t>
   </si>
@@ -44,12 +45,6 @@
     <t>Прецедент</t>
   </si>
   <si>
-    <t>Важность/Срочность/Приоритет</t>
-  </si>
-  <si>
-    <t>3 - Низкий</t>
-  </si>
-  <si>
     <t>Неавторизированный пользователь</t>
   </si>
   <si>
@@ -110,9 +105,6 @@
     <t>Администратор ресторана</t>
   </si>
   <si>
-    <t>Возможность добавить новый товар на страицу ресторана</t>
-  </si>
-  <si>
     <t>Возможность удалить товар со страницы ресторана</t>
   </si>
   <si>
@@ -125,9 +117,6 @@
     <t>Использование БД для хранения данных</t>
   </si>
   <si>
-    <t>Нефункциональные</t>
-  </si>
-  <si>
     <t>Адаптивность конечного продукта</t>
   </si>
   <si>
@@ -137,20 +126,20 @@
     <t>Использование системы контроля версий</t>
   </si>
   <si>
-    <t>Интуитвно понятный интерфейс</t>
-  </si>
-  <si>
-    <t>2 - Средний</t>
-  </si>
-  <si>
-    <t>1 - Максимальный</t>
+    <t>Нефункциональное</t>
+  </si>
+  <si>
+    <t>Интуитивно понятный интерфейс</t>
+  </si>
+  <si>
+    <t>Возможность добавить новый товар на страницу ресторана</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +176,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -298,23 +294,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -327,31 +311,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -636,474 +644,467 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.7265625" style="1"/>
-    <col min="9" max="9" width="34.6328125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="5" width="17.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.77734375" style="1"/>
+    <col min="9" max="9" width="34.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7">
-        <v>2</v>
-      </c>
-      <c r="F2" s="10">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E10" s="11">
+        <v>2</v>
+      </c>
+      <c r="F10" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="12">
         <v>3</v>
       </c>
-      <c r="F6" s="12">
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2</v>
+      </c>
+      <c r="F13" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="E14" s="11">
+        <v>2</v>
+      </c>
+      <c r="F14" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="14">
         <v>3</v>
       </c>
-      <c r="F7" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="E17" s="14">
+        <v>2</v>
+      </c>
+      <c r="F17" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="12">
         <v>3</v>
       </c>
-      <c r="E8" s="8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3</v>
-      </c>
-      <c r="F10" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="8">
-        <v>3</v>
-      </c>
-      <c r="E12" s="8">
-        <v>3</v>
-      </c>
-      <c r="F12" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7">
-        <v>3</v>
-      </c>
-      <c r="F14" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="E20" s="12">
+        <v>2</v>
+      </c>
+      <c r="F20" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8">
-        <v>3</v>
-      </c>
-      <c r="F15" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2</v>
-      </c>
-      <c r="E16" s="8">
-        <v>3</v>
-      </c>
-      <c r="F16" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="9">
-        <v>3</v>
-      </c>
-      <c r="E17" s="9">
-        <v>3</v>
-      </c>
-      <c r="F17" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2</v>
-      </c>
-      <c r="E19" s="8">
-        <v>3</v>
-      </c>
-      <c r="F19" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="8">
-        <v>3</v>
-      </c>
-      <c r="E20" s="8">
-        <v>3</v>
-      </c>
-      <c r="F20" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1</v>
-      </c>
-      <c r="F22" s="14">
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="16">
         <v>1</v>
       </c>
     </row>
